--- a/biology/Zoologie/Echinolampas/Echinolampas.xlsx
+++ b/biology/Zoologie/Echinolampas/Echinolampas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinolampas est un genre d'oursins, de la famille des Echinolampadidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers de forme arrondie présentant une légère pointe antérieure (où se trouve le périprocte). Le système apical est tétrabasal ou monobasal, les pétales longs et ouverts. Le périprocte est marginal à inframarginal. On note la présence de pores buccaux, de bourrelets et de phyllodes larges bien développés.
 </t>
@@ -542,9 +556,11 @@
           <t>Extension stratigraphique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces oursins existent depuis l'Eocène[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces oursins existent depuis l'Eocène.
 </t>
         </is>
       </c>
@@ -573,13 +589,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Echinolampas a été décrit par le zoologiste britannique John Edward Gray en 1825.
-L'espèce type pour le genre est Echinolampas ovata (Leske, 1778), que l'on trouve dans l'Océan Indien.
-Taxinomie
-Liste des genres
-Selon World Register of Marine Species                               (3 mai 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Echinolampas a été décrit par le zoologiste britannique John Edward Gray en 1825.
+L'espèce type pour le genre est Echinolampas ovata (Leske, 1778), que l'on trouve dans l'Océan Indien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Echinolampas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinolampas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des genres
+Selon World Register of Marine Species                               (3 mai 2014) :
 Echinolampas africanus
 Echinolampas alexandri de Loriol, 1876
 Echinolampas altissima Arnold &amp; H. L. Clark, 1927
@@ -678,8 +730,43 @@
 Echinolampas tatei Lambert, 1898; Oligocène-Miocène, Tasmanie
 Echinolampas vicaryi d'Archiac &amp; Haime, 1853; Eocène, Inde
 Echinolampas vrians Sowerby, in Grant 1840; Eocène, Pakistan
-Echinolampas yoshiwarai de Loriol, 1902; Miocène-Pliocène, Japon.
-Synonyme
+Echinolampas yoshiwarai de Loriol, 1902; Miocène-Pliocène, Japon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Echinolampas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinolampas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aplolampas † Gray, 1825 
 Echinolampas (Palaeolampas) Bell, 1880
 Palaeolampas Bell, 1880
@@ -698,11 +785,46 @@
 Oeidolampas Lambert, 1918
 Politolampas Lambert, 1918
 Planilampas Mortensen, 1948
-Classification
-Plus de 285 espèces ont été assignées à ce genre (Roman, 1965, page 689). En raison du très grand nombre d'espèces, plusieurs tentatives ont été faites pour subdiviser ce genre en sous-genres ou en sections. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Echinolampas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinolampas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 285 espèces ont été assignées à ce genre (Roman, 1965, page 689). En raison du très grand nombre d'espèces, plusieurs tentatives ont été faites pour subdiviser ce genre en sous-genres ou en sections. 
 Lambert (1907, p.28) et Lambert &amp; Thiery (1921, pp.377-384, 1924, p.385) divisent ce genre en huit sections, se distinguant par des caractères variables, comme en témoigne le fait que différents spécimens d'un les espèces ont été assignées à plus d'une section (Kier, 1957, p.848).
 Mortensen (1948, p.272) les a groupés en trois sous-genres, cependant, les caractères utilisés par Mortensen sont trop variables pour être d'une distinction générique (Kier, 1962, p.107). 
-Le site Web du NHM[3] a divisé les Echinolampas en quatre sous-genres, en utilisant des caractères fiables. Ils indiquent laisser aux futurs auteurs le soin d'effectuer une analyse morphométrique plus approfondie des Echinolampas.
+Le site Web du NHM a divisé les Echinolampas en quatre sous-genres, en utilisant des caractères fiables. Ils indiquent laisser aux futurs auteurs le soin d'effectuer une analyse morphométrique plus approfondie des Echinolampas.
 </t>
         </is>
       </c>
